--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/FLORIDA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/FLORIDA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1818"/>
+  <dimension ref="A1:D1812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,14 +504,14 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="12">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -760,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="30">
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="38">
@@ -882,13 +882,13 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C39">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C42">
@@ -1070,14 +1070,14 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="54">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C60">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C85">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C92">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C104">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C105">
@@ -1909,7 +1909,7 @@
         <v>30</v>
       </c>
       <c r="D117">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="118">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="D120">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="121">
@@ -2013,7 +2013,7 @@
         <v>30</v>
       </c>
       <c r="D125">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="126">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="D133">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="134">
@@ -2130,7 +2130,7 @@
         <v>3112</v>
       </c>
       <c r="D134">
-        <v>0.09588070370028037</v>
+        <v>0.09588070370028036</v>
       </c>
     </row>
     <row r="135">
@@ -2362,7 +2362,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C152">
@@ -2388,7 +2388,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C154">
@@ -2512,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="D163">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="164">
@@ -2570,7 +2570,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C168">
@@ -2583,7 +2583,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C169">
@@ -2686,7 +2686,7 @@
         <v>3</v>
       </c>
       <c r="D176">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="177">
@@ -2816,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="D186">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="187">
@@ -2881,13 +2881,13 @@
         <v>3</v>
       </c>
       <c r="D191">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C192">
@@ -2964,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="D197">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="198">
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="D200">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="201">
@@ -3048,7 +3048,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3105,7 +3105,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C208">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C222">
@@ -3461,7 +3461,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C235">
@@ -3481,7 +3481,7 @@
         <v>3</v>
       </c>
       <c r="D236">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="237">
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="D237">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="238">
@@ -3513,7 +3513,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C239">
@@ -3598,13 +3598,13 @@
         <v>3</v>
       </c>
       <c r="D245">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C246">
@@ -3617,7 +3617,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C247">
@@ -3630,7 +3630,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C248">
@@ -3754,18 +3754,18 @@
         <v>309</v>
       </c>
       <c r="D257">
-        <v>0.009520288381550975</v>
+        <v>0.009520288381550977</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C258">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C261">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C262">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C268">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C274">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C278">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C285">
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="D288">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="289">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C292">
@@ -4370,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="D304">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="305">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C306">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C315">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4532,7 +4532,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C317">
@@ -4552,13 +4552,13 @@
         <v>3</v>
       </c>
       <c r="D318">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C319">
@@ -4584,7 +4584,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C321">
@@ -4701,7 +4701,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C330">
@@ -4747,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="D333">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="334">
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="D334">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="335">
@@ -4844,7 +4844,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C341">
@@ -4922,7 +4922,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C347">
@@ -4935,7 +4935,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C348">
@@ -4948,7 +4948,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C349">
@@ -4961,7 +4961,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C350">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C363">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C364">
@@ -5161,7 +5161,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C365">
@@ -5265,7 +5265,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C373">
@@ -5317,7 +5317,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C377">
@@ -5421,7 +5421,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C385">
@@ -5473,7 +5473,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C389">
@@ -5499,7 +5499,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C391">
@@ -5525,7 +5525,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C393">
@@ -5551,7 +5551,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C395">
@@ -5577,7 +5577,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C397">
@@ -5642,7 +5642,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C402">
@@ -5714,7 +5714,7 @@
         <v>2966</v>
       </c>
       <c r="D407">
-        <v>0.09138244446498445</v>
+        <v>0.09138244446498443</v>
       </c>
     </row>
     <row r="408">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C408">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C411">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C415">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C417">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C418">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C421">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C422">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C423">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C428">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C429">
@@ -6050,7 +6050,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C433">
@@ -6063,7 +6063,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C434">
@@ -6141,7 +6141,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C440">
@@ -6154,14 +6154,14 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C441">
         <v>30</v>
       </c>
       <c r="D441">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="442">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C443">
@@ -6219,7 +6219,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C446">
@@ -6258,7 +6258,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C449">
@@ -6343,7 +6343,7 @@
         <v>30</v>
       </c>
       <c r="D455">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="456">
@@ -6356,7 +6356,7 @@
         <v>3</v>
       </c>
       <c r="D456">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="457">
@@ -6427,7 +6427,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C462">
@@ -6453,7 +6453,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C464">
@@ -6479,7 +6479,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C466">
@@ -6505,7 +6505,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C468">
@@ -6557,7 +6557,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C472">
@@ -6570,7 +6570,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C473">
@@ -6642,7 +6642,7 @@
         <v>3</v>
       </c>
       <c r="D478">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="479">
@@ -6731,14 +6731,14 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C485">
         <v>3</v>
       </c>
       <c r="D485">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="486">
@@ -6822,20 +6822,20 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C492">
         <v>3</v>
       </c>
       <c r="D492">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C493">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C499">
@@ -6965,7 +6965,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C503">
@@ -6985,7 +6985,7 @@
         <v>3</v>
       </c>
       <c r="D504">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="505">
@@ -7017,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C507">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C510">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C517">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C518">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C519">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C520">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C522">
@@ -7225,20 +7225,20 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C523">
         <v>3</v>
       </c>
       <c r="D523">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C524">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C527">
@@ -7336,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="D531">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="532">
@@ -7355,7 +7355,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C533">
@@ -7368,14 +7368,14 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C534">
         <v>3</v>
       </c>
       <c r="D534">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="535">
@@ -7388,7 +7388,7 @@
         <v>30</v>
       </c>
       <c r="D535">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="536">
@@ -7420,7 +7420,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C538">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C540">
@@ -7459,7 +7459,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C541">
@@ -7479,13 +7479,13 @@
         <v>3</v>
       </c>
       <c r="D542">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C543">
@@ -7563,7 +7563,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C549">
@@ -7576,7 +7576,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C550">
@@ -7615,7 +7615,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C553">
@@ -7628,7 +7628,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C554">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C559">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C564">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C566">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C575">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C581">
@@ -8004,7 +8004,7 @@
         <v>3</v>
       </c>
       <c r="D582">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="583">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C587">
@@ -8114,7 +8114,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C591">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C596">
@@ -8192,7 +8192,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C597">
@@ -8225,7 +8225,7 @@
         <v>3</v>
       </c>
       <c r="D599">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="600">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C603">
@@ -8335,20 +8335,20 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C608">
         <v>3</v>
       </c>
       <c r="D608">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C609">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C612">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C614">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C615">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C616">
@@ -8459,7 +8459,7 @@
         <v>3</v>
       </c>
       <c r="D617">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="618">
@@ -8478,7 +8478,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C619">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C620">
@@ -8517,7 +8517,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C622">
@@ -8556,7 +8556,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C625">
@@ -8582,7 +8582,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C627">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C628">
@@ -8680,7 +8680,7 @@
         <v>3</v>
       </c>
       <c r="D634">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="635">
@@ -8712,20 +8712,20 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C637">
         <v>3</v>
       </c>
       <c r="D637">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C638">
@@ -8784,13 +8784,13 @@
         <v>3</v>
       </c>
       <c r="D642">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C643">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C644">
@@ -8842,7 +8842,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C647">
@@ -8855,7 +8855,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C648">
@@ -8868,7 +8868,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C649">
@@ -9101,7 +9101,7 @@
         <v>3</v>
       </c>
       <c r="D666">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="667">
@@ -9172,7 +9172,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C672">
@@ -9198,7 +9198,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C674">
@@ -9530,7 +9530,7 @@
         <v>3</v>
       </c>
       <c r="D699">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="700">
@@ -9569,7 +9569,7 @@
         <v>30</v>
       </c>
       <c r="D702">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="703">
@@ -9959,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="D732">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="733">
@@ -10056,7 +10056,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C740">
@@ -10232,7 +10232,7 @@
         <v>3</v>
       </c>
       <c r="D753">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="754">
@@ -10297,7 +10297,7 @@
         <v>3</v>
       </c>
       <c r="D758">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="759">
@@ -10386,7 +10386,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C765">
@@ -10510,7 +10510,7 @@
         <v>3</v>
       </c>
       <c r="D774">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="775">
@@ -10542,7 +10542,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C777">
@@ -10614,13 +10614,13 @@
         <v>3</v>
       </c>
       <c r="D782">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C783">
@@ -10633,7 +10633,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C784">
@@ -10724,7 +10724,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C791">
@@ -10781,7 +10781,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C795">
@@ -10794,7 +10794,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C796">
@@ -10846,14 +10846,14 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C800">
         <v>3</v>
       </c>
       <c r="D800">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="801">
@@ -10905,7 +10905,7 @@
         <v>3</v>
       </c>
       <c r="D804">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="805">
@@ -10937,7 +10937,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C807">
@@ -11267,7 +11267,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C832">
@@ -11319,7 +11319,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C836">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C840">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C844">
@@ -11461,7 +11461,7 @@
         <v>3</v>
       </c>
       <c r="D846">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="847">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C851">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C853">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C855">
@@ -11597,14 +11597,14 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C857">
         <v>3</v>
       </c>
       <c r="D857">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C859">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C860">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C861">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C862">
@@ -11675,20 +11675,20 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C863">
         <v>30</v>
       </c>
       <c r="D863">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C864">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C866">
@@ -11799,7 +11799,7 @@
         <v>3</v>
       </c>
       <c r="D872">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="873">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C875">
@@ -11857,7 +11857,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C877">
@@ -11883,7 +11883,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C879">
@@ -11896,7 +11896,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C880">
@@ -11916,7 +11916,7 @@
         <v>3</v>
       </c>
       <c r="D881">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="882">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C883">
@@ -11955,13 +11955,13 @@
         <v>3</v>
       </c>
       <c r="D884">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C885">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C886">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C887">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C889">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C891">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C895">
@@ -12137,7 +12137,7 @@
         <v>3</v>
       </c>
       <c r="D898">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="899">
@@ -12254,7 +12254,7 @@
         <v>3</v>
       </c>
       <c r="D907">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="908">
@@ -12267,13 +12267,13 @@
         <v>3</v>
       </c>
       <c r="D908">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C909">
@@ -12351,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C915">
@@ -12462,7 +12462,7 @@
         <v>3</v>
       </c>
       <c r="D923">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="924">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C926">
@@ -12514,7 +12514,7 @@
         <v>3</v>
       </c>
       <c r="D927">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="928">
@@ -12585,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C933">
@@ -12748,7 +12748,7 @@
         <v>3</v>
       </c>
       <c r="D945">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="946">
@@ -12774,7 +12774,7 @@
         <v>3</v>
       </c>
       <c r="D947">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="948">
@@ -12845,7 +12845,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C953">
@@ -12910,7 +12910,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C958">
@@ -13001,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C965">
@@ -13014,7 +13014,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C966">
@@ -13047,7 +13047,7 @@
         <v>3</v>
       </c>
       <c r="D968">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="969">
@@ -13229,7 +13229,7 @@
         <v>3</v>
       </c>
       <c r="D982">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="983">
@@ -13372,7 +13372,7 @@
         <v>3</v>
       </c>
       <c r="D993">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="994">
@@ -13456,7 +13456,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1000">
@@ -13547,7 +13547,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1007">
@@ -13723,13 +13723,13 @@
         <v>3</v>
       </c>
       <c r="D1020">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1021">
@@ -13755,14 +13755,14 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1023">
         <v>3</v>
       </c>
       <c r="D1023">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1024">
@@ -13866,7 +13866,7 @@
         <v>3</v>
       </c>
       <c r="D1031">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1032">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1038">
@@ -13970,7 +13970,7 @@
         <v>3</v>
       </c>
       <c r="D1039">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1040">
@@ -13983,7 +13983,7 @@
         <v>3</v>
       </c>
       <c r="D1040">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1041">
@@ -14100,7 +14100,7 @@
         <v>3</v>
       </c>
       <c r="D1049">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1050">
@@ -14210,7 +14210,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1058">
@@ -14223,7 +14223,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1059">
@@ -14256,7 +14256,7 @@
         <v>3</v>
       </c>
       <c r="D1061">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1062">
@@ -14269,7 +14269,7 @@
         <v>3</v>
       </c>
       <c r="D1062">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1063">
@@ -14366,7 +14366,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1070">
@@ -14412,7 +14412,7 @@
         <v>3</v>
       </c>
       <c r="D1073">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1074">
@@ -14509,7 +14509,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1081">
@@ -14561,14 +14561,14 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1085">
         <v>3</v>
       </c>
       <c r="D1085">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1086">
@@ -14626,7 +14626,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1090">
@@ -14652,7 +14652,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1092">
@@ -14672,7 +14672,7 @@
         <v>3</v>
       </c>
       <c r="D1093">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1094">
@@ -14711,7 +14711,7 @@
         <v>3</v>
       </c>
       <c r="D1096">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1097">
@@ -14769,7 +14769,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1101">
@@ -14860,7 +14860,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1108">
@@ -14945,7 +14945,7 @@
         <v>3</v>
       </c>
       <c r="D1114">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1115">
@@ -14971,7 +14971,7 @@
         <v>3</v>
       </c>
       <c r="D1116">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1117">
@@ -15101,7 +15101,7 @@
         <v>3</v>
       </c>
       <c r="D1126">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1127">
@@ -15127,7 +15127,7 @@
         <v>3</v>
       </c>
       <c r="D1128">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1129">
@@ -15185,7 +15185,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1133">
@@ -15283,7 +15283,7 @@
         <v>3</v>
       </c>
       <c r="D1140">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1141">
@@ -15413,7 +15413,7 @@
         <v>3</v>
       </c>
       <c r="D1150">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1151">
@@ -15588,7 +15588,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1164">
@@ -15764,7 +15764,7 @@
         <v>3</v>
       </c>
       <c r="D1177">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1178">
@@ -15848,7 +15848,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1184">
@@ -15868,13 +15868,13 @@
         <v>3</v>
       </c>
       <c r="D1185">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1186">
@@ -15887,7 +15887,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1187">
@@ -15900,7 +15900,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1188">
@@ -15926,7 +15926,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1190">
@@ -15939,14 +15939,14 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1191">
         <v>3</v>
       </c>
       <c r="D1191">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1192">
@@ -15959,7 +15959,7 @@
         <v>3</v>
       </c>
       <c r="D1192">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1193">
@@ -15985,13 +15985,13 @@
         <v>3</v>
       </c>
       <c r="D1194">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1195">
@@ -16004,7 +16004,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1196">
@@ -16017,7 +16017,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1197">
@@ -16030,7 +16030,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1198">
@@ -16043,7 +16043,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1199">
@@ -16063,13 +16063,13 @@
         <v>3</v>
       </c>
       <c r="D1200">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1201">
@@ -16141,13 +16141,13 @@
         <v>3</v>
       </c>
       <c r="D1206">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1207">
@@ -16167,7 +16167,7 @@
         <v>3128</v>
       </c>
       <c r="D1208">
-        <v>0.09637366361647719</v>
+        <v>0.0963736636164772</v>
       </c>
     </row>
     <row r="1209">
@@ -16341,7 +16341,7 @@
         <v>3</v>
       </c>
       <c r="D1221">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1222">
@@ -16425,7 +16425,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1228">
@@ -16464,7 +16464,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1231">
@@ -16497,7 +16497,7 @@
         <v>3</v>
       </c>
       <c r="D1233">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1234">
@@ -16523,7 +16523,7 @@
         <v>3</v>
       </c>
       <c r="D1235">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1236">
@@ -16536,7 +16536,7 @@
         <v>3</v>
       </c>
       <c r="D1236">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1237">
@@ -16594,7 +16594,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1241">
@@ -16614,7 +16614,7 @@
         <v>3</v>
       </c>
       <c r="D1242">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1243">
@@ -16672,7 +16672,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1247">
@@ -16692,7 +16692,7 @@
         <v>3</v>
       </c>
       <c r="D1248">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1249">
@@ -16724,7 +16724,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1251">
@@ -16737,7 +16737,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1252">
@@ -16783,7 +16783,7 @@
         <v>3</v>
       </c>
       <c r="D1255">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1256">
@@ -16906,7 +16906,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1265">
@@ -16958,7 +16958,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1269">
@@ -16997,7 +16997,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1272">
@@ -17114,7 +17114,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1281">
@@ -17127,7 +17127,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1282">
@@ -17173,7 +17173,7 @@
         <v>3</v>
       </c>
       <c r="D1285">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1286">
@@ -17244,7 +17244,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1291">
@@ -17381,7 +17381,7 @@
         <v>3</v>
       </c>
       <c r="D1301">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1302">
@@ -17478,7 +17478,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1309">
@@ -17517,20 +17517,20 @@
     <row r="1312">
       <c r="B1312" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1312">
         <v>3</v>
       </c>
       <c r="D1312">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1313">
       <c r="B1313" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1313">
@@ -17595,7 +17595,7 @@
     <row r="1318">
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1318">
@@ -17699,7 +17699,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1326">
@@ -17764,7 +17764,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1331">
@@ -17790,7 +17790,7 @@
     <row r="1333">
       <c r="B1333" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1333">
@@ -17803,14 +17803,14 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1334">
         <v>3</v>
       </c>
       <c r="D1334">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1335">
@@ -17868,7 +17868,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1339">
@@ -17940,7 +17940,7 @@
         <v>3</v>
       </c>
       <c r="D1344">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1345">
@@ -18011,14 +18011,14 @@
     <row r="1350">
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1350">
         <v>3</v>
       </c>
       <c r="D1350">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1351">
@@ -18050,7 +18050,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1353">
@@ -18250,7 +18250,7 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1368">
@@ -18276,7 +18276,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1370">
@@ -18354,7 +18354,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1376">
@@ -18367,7 +18367,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1377">
@@ -18406,7 +18406,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1380">
@@ -18445,7 +18445,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1383">
@@ -18618,13 +18618,13 @@
         <v>30</v>
       </c>
       <c r="D1395">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1396">
@@ -18637,7 +18637,7 @@
     <row r="1397">
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1397">
@@ -18702,7 +18702,7 @@
     <row r="1402">
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1402">
@@ -18728,7 +18728,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1404">
@@ -18774,7 +18774,7 @@
         <v>3</v>
       </c>
       <c r="D1407">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1408">
@@ -18852,13 +18852,13 @@
         <v>30</v>
       </c>
       <c r="D1413">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="1414">
       <c r="B1414" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1414">
@@ -18936,14 +18936,14 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1420">
         <v>30</v>
       </c>
       <c r="D1420">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="1421">
@@ -19014,7 +19014,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1426">
@@ -19034,13 +19034,13 @@
         <v>3</v>
       </c>
       <c r="D1427">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1428">
@@ -19086,7 +19086,7 @@
         <v>3</v>
       </c>
       <c r="D1431">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1432">
@@ -19131,7 +19131,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1435">
@@ -19183,7 +19183,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1439">
@@ -19196,7 +19196,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1440">
@@ -19209,7 +19209,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1441">
@@ -19222,7 +19222,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1442">
@@ -19235,7 +19235,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1443">
@@ -19248,7 +19248,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1444">
@@ -19268,7 +19268,7 @@
         <v>3</v>
       </c>
       <c r="D1445">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1446">
@@ -19416,7 +19416,7 @@
         <v>3</v>
       </c>
       <c r="D1456">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1457">
@@ -19713,7 +19713,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1479">
@@ -19913,7 +19913,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1494">
@@ -19959,7 +19959,7 @@
         <v>3</v>
       </c>
       <c r="D1497">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1498">
@@ -19998,7 +19998,7 @@
         <v>3</v>
       </c>
       <c r="D1500">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1501">
@@ -20120,7 +20120,7 @@
         <v>3</v>
       </c>
       <c r="D1509">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1510">
@@ -20263,7 +20263,7 @@
         <v>3</v>
       </c>
       <c r="D1520">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1521">
@@ -20393,7 +20393,7 @@
         <v>3</v>
       </c>
       <c r="D1530">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1531">
@@ -20451,7 +20451,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1535">
@@ -20586,7 +20586,7 @@
     <row r="1545">
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1545">
@@ -20619,7 +20619,7 @@
         <v>3</v>
       </c>
       <c r="D1547">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1548">
@@ -20651,7 +20651,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1550">
@@ -20677,7 +20677,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1552">
@@ -20690,7 +20690,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1553">
@@ -20716,7 +20716,7 @@
     <row r="1555">
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1555">
@@ -20768,7 +20768,7 @@
     <row r="1559">
       <c r="B1559" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1559">
@@ -20807,7 +20807,7 @@
     <row r="1562">
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1562">
@@ -20846,7 +20846,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1565">
@@ -21040,7 +21040,7 @@
         <v>3</v>
       </c>
       <c r="D1579">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1580">
@@ -21053,7 +21053,7 @@
         <v>3</v>
       </c>
       <c r="D1580">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1581">
@@ -21085,7 +21085,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1583">
@@ -21137,7 +21137,7 @@
     <row r="1587">
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1587">
@@ -21254,14 +21254,14 @@
     <row r="1596">
       <c r="B1596" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1596">
         <v>3</v>
       </c>
       <c r="D1596">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1597">
@@ -21280,14 +21280,14 @@
     <row r="1598">
       <c r="B1598" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1598">
         <v>3</v>
       </c>
       <c r="D1598">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1599">
@@ -21319,7 +21319,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1601">
@@ -21345,7 +21345,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1603">
@@ -21378,7 +21378,7 @@
         <v>3</v>
       </c>
       <c r="D1605">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1606">
@@ -21449,7 +21449,7 @@
     <row r="1611">
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1611">
@@ -21560,7 +21560,7 @@
         <v>3</v>
       </c>
       <c r="D1619">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1620">
@@ -21592,7 +21592,7 @@
     <row r="1622">
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1622">
@@ -21605,14 +21605,14 @@
     <row r="1623">
       <c r="B1623" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1623">
         <v>3</v>
       </c>
       <c r="D1623">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1624">
@@ -21800,7 +21800,7 @@
     <row r="1638">
       <c r="B1638" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1638">
@@ -21813,7 +21813,7 @@
     <row r="1639">
       <c r="B1639" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1639">
@@ -21865,7 +21865,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1643">
@@ -21878,7 +21878,7 @@
     <row r="1644">
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1644">
@@ -21891,7 +21891,7 @@
     <row r="1645">
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1645">
@@ -22008,7 +22008,7 @@
     <row r="1654">
       <c r="B1654" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1654">
@@ -22041,7 +22041,7 @@
         <v>3</v>
       </c>
       <c r="D1656">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1657">
@@ -22073,7 +22073,7 @@
     <row r="1659">
       <c r="B1659" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1659">
@@ -22093,7 +22093,7 @@
         <v>3</v>
       </c>
       <c r="D1660">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1661">
@@ -22112,7 +22112,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1662">
@@ -22138,7 +22138,7 @@
     <row r="1664">
       <c r="B1664" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1664">
@@ -22190,7 +22190,7 @@
     <row r="1668">
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1668">
@@ -22359,7 +22359,7 @@
     <row r="1681">
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1681">
@@ -22372,7 +22372,7 @@
     <row r="1682">
       <c r="B1682" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1682">
@@ -22424,7 +22424,7 @@
     <row r="1686">
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1686">
@@ -22457,7 +22457,7 @@
         <v>3</v>
       </c>
       <c r="D1688">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1689">
@@ -22515,7 +22515,7 @@
     <row r="1693">
       <c r="B1693" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1693">
@@ -22554,7 +22554,7 @@
     <row r="1696">
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1696">
@@ -22619,14 +22619,14 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1701">
         <v>3</v>
       </c>
       <c r="D1701">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1702">
@@ -22730,7 +22730,7 @@
         <v>3</v>
       </c>
       <c r="D1709">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1710">
@@ -22756,7 +22756,7 @@
         <v>3</v>
       </c>
       <c r="D1711">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1712">
@@ -22782,7 +22782,7 @@
         <v>3</v>
       </c>
       <c r="D1713">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1714">
@@ -22873,13 +22873,13 @@
         <v>3</v>
       </c>
       <c r="D1720">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1721">
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1721">
@@ -23061,7 +23061,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1735">
@@ -23146,7 +23146,7 @@
         <v>3</v>
       </c>
       <c r="D1741">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1742">
@@ -23204,7 +23204,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1746">
@@ -23217,7 +23217,7 @@
     <row r="1747">
       <c r="B1747" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1747">
@@ -23372,7 +23372,7 @@
         <v>3</v>
       </c>
       <c r="D1758">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1759">
@@ -23513,7 +23513,7 @@
     <row r="1769">
       <c r="B1769" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1769">
@@ -23533,13 +23533,13 @@
         <v>3</v>
       </c>
       <c r="D1770">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1771">
       <c r="B1771" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1771">
@@ -23565,7 +23565,7 @@
     <row r="1773">
       <c r="B1773" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1773">
@@ -23682,7 +23682,7 @@
     <row r="1782">
       <c r="B1782" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1782">
@@ -23741,7 +23741,7 @@
         <v>3</v>
       </c>
       <c r="D1786">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1787">
@@ -23780,7 +23780,7 @@
         <v>3</v>
       </c>
       <c r="D1789">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1790">
@@ -23799,7 +23799,7 @@
     <row r="1791">
       <c r="B1791" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1791">
@@ -23812,7 +23812,7 @@
     <row r="1792">
       <c r="B1792" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1792">
@@ -23845,7 +23845,7 @@
         <v>3</v>
       </c>
       <c r="D1794">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1795">
@@ -23858,7 +23858,7 @@
         <v>30</v>
       </c>
       <c r="D1795">
-        <v>0.0009242998428690267</v>
+        <v>0.0009242998428690268</v>
       </c>
     </row>
     <row r="1796">
@@ -23929,7 +23929,7 @@
     <row r="1801">
       <c r="B1801" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1801">
@@ -23942,7 +23942,7 @@
     <row r="1802">
       <c r="B1802" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1802">
@@ -23975,13 +23975,13 @@
         <v>3</v>
       </c>
       <c r="D1804">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1805">
       <c r="B1805" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1805">
@@ -24014,7 +24014,7 @@
         <v>3</v>
       </c>
       <c r="D1807">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1808">
@@ -24027,7 +24027,7 @@
         <v>3</v>
       </c>
       <c r="D1808">
-        <v>9.242998428690267E-05</v>
+        <v>9.242998428690268E-05</v>
       </c>
     </row>
     <row r="1809">
@@ -24080,41 +24080,6 @@
       </c>
       <c r="D1812">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1814">
-      <c r="A1814" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1815">
-      <c r="A1815" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1816">
-      <c r="A1816" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1817">
-      <c r="A1817" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1818">
-      <c r="A1818" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
